--- a/CumulativeTestsByTypeByCounty/2021-11-22.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-11-22.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>76323</v>
+        <v>76406</v>
       </c>
       <c r="C2" s="4">
-        <v>1915</v>
+        <v>1921</v>
       </c>
       <c r="D2" s="4">
-        <v>31026</v>
+        <v>31140</v>
       </c>
       <c r="E2" s="4">
-        <v>109264</v>
+        <v>109467</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>5508</v>
+        <v>5514</v>
       </c>
       <c r="C3" s="4">
         <v>316</v>
       </c>
       <c r="D3" s="4">
-        <v>5161</v>
+        <v>5168</v>
       </c>
       <c r="E3" s="4">
-        <v>10985</v>
+        <v>10998</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>77490</v>
+        <v>77560</v>
       </c>
       <c r="C4" s="4">
-        <v>4138</v>
+        <v>4160</v>
       </c>
       <c r="D4" s="4">
-        <v>67733</v>
+        <v>67874</v>
       </c>
       <c r="E4" s="4">
-        <v>149361</v>
+        <v>149594</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>15083</v>
+        <v>15110</v>
       </c>
       <c r="C5" s="4">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="D5" s="4">
-        <v>12395</v>
+        <v>12414</v>
       </c>
       <c r="E5" s="4">
-        <v>30243</v>
+        <v>30291</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4270</v>
+        <v>4278</v>
       </c>
       <c r="C6" s="4">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D6" s="4">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="E6" s="4">
-        <v>6434</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C7" s="4">
         <v>319</v>
@@ -1165,7 +1165,7 @@
         <v>1201</v>
       </c>
       <c r="E7" s="4">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>100116</v>
+        <v>100191</v>
       </c>
       <c r="C8" s="4">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D8" s="4">
-        <v>13382</v>
+        <v>13399</v>
       </c>
       <c r="E8" s="4">
-        <v>114907</v>
+        <v>115002</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>27589</v>
+        <v>27641</v>
       </c>
       <c r="C9" s="4">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D9" s="4">
-        <v>4781</v>
+        <v>4788</v>
       </c>
       <c r="E9" s="4">
-        <v>34185</v>
+        <v>34245</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="C10" s="4">
         <v>92</v>
       </c>
       <c r="D10" s="4">
-        <v>1291</v>
+        <v>1317</v>
       </c>
       <c r="E10" s="4">
-        <v>3851</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>13495</v>
+        <v>13520</v>
       </c>
       <c r="C11" s="4">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D11" s="4">
-        <v>7755</v>
+        <v>7773</v>
       </c>
       <c r="E11" s="4">
-        <v>21991</v>
+        <v>22039</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>89178</v>
+        <v>89353</v>
       </c>
       <c r="C12" s="4">
-        <v>2109</v>
+        <v>2124</v>
       </c>
       <c r="D12" s="4">
-        <v>40105</v>
+        <v>40134</v>
       </c>
       <c r="E12" s="4">
-        <v>131392</v>
+        <v>131611</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2027</v>
+        <v>2038</v>
       </c>
       <c r="C13" s="4">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D13" s="4">
-        <v>3490</v>
+        <v>3555</v>
       </c>
       <c r="E13" s="4">
-        <v>5961</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>51499</v>
+        <v>51537</v>
       </c>
       <c r="C14" s="4">
         <v>7837</v>
       </c>
       <c r="D14" s="4">
-        <v>20307</v>
+        <v>20341</v>
       </c>
       <c r="E14" s="4">
-        <v>79643</v>
+        <v>79715</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>387521</v>
+        <v>388472</v>
       </c>
       <c r="C15" s="4">
-        <v>15157</v>
+        <v>15184</v>
       </c>
       <c r="D15" s="4">
-        <v>80757</v>
+        <v>81184</v>
       </c>
       <c r="E15" s="4">
-        <v>483435</v>
+        <v>484840</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>3887897</v>
+        <v>3894970</v>
       </c>
       <c r="C16" s="4">
-        <v>69973</v>
+        <v>70231</v>
       </c>
       <c r="D16" s="4">
-        <v>548999</v>
+        <v>550731</v>
       </c>
       <c r="E16" s="4">
-        <v>4506869</v>
+        <v>4515932</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>8873</v>
+        <v>8893</v>
       </c>
       <c r="C17" s="4">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D17" s="4">
-        <v>3010</v>
+        <v>3022</v>
       </c>
       <c r="E17" s="4">
-        <v>12326</v>
+        <v>12361</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>11809</v>
+        <v>11821</v>
       </c>
       <c r="C19" s="4">
         <v>553</v>
       </c>
       <c r="D19" s="4">
-        <v>8532</v>
+        <v>8545</v>
       </c>
       <c r="E19" s="4">
-        <v>20894</v>
+        <v>20919</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>85971</v>
+        <v>86101</v>
       </c>
       <c r="C20" s="4">
-        <v>10502</v>
+        <v>10504</v>
       </c>
       <c r="D20" s="4">
-        <v>32921</v>
+        <v>33055</v>
       </c>
       <c r="E20" s="4">
-        <v>129394</v>
+        <v>129660</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>533213</v>
+        <v>534530</v>
       </c>
       <c r="C21" s="4">
-        <v>24933</v>
+        <v>24965</v>
       </c>
       <c r="D21" s="4">
-        <v>103840</v>
+        <v>104129</v>
       </c>
       <c r="E21" s="4">
-        <v>661986</v>
+        <v>663624</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>414997</v>
+        <v>415837</v>
       </c>
       <c r="C22" s="4">
-        <v>11692</v>
+        <v>11733</v>
       </c>
       <c r="D22" s="4">
-        <v>45976</v>
+        <v>46086</v>
       </c>
       <c r="E22" s="4">
-        <v>472665</v>
+        <v>473656</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9231</v>
+        <v>9235</v>
       </c>
       <c r="C23" s="4">
         <v>171</v>
@@ -1437,7 +1437,7 @@
         <v>3321</v>
       </c>
       <c r="E23" s="4">
-        <v>12723</v>
+        <v>12727</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="C24" s="4">
         <v>139</v>
@@ -1454,7 +1454,7 @@
         <v>178</v>
       </c>
       <c r="E24" s="4">
-        <v>1480</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>24850</v>
+        <v>24856</v>
       </c>
       <c r="C25" s="4">
         <v>1807</v>
       </c>
       <c r="D25" s="4">
-        <v>6389</v>
+        <v>6398</v>
       </c>
       <c r="E25" s="4">
-        <v>33046</v>
+        <v>33061</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>25307</v>
+        <v>25359</v>
       </c>
       <c r="C26" s="4">
         <v>1232</v>
       </c>
       <c r="D26" s="4">
-        <v>40177</v>
+        <v>40252</v>
       </c>
       <c r="E26" s="4">
-        <v>66716</v>
+        <v>66843</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>24452</v>
+        <v>24493</v>
       </c>
       <c r="C27" s="4">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D27" s="4">
-        <v>6366</v>
+        <v>6378</v>
       </c>
       <c r="E27" s="4">
-        <v>31588</v>
+        <v>31645</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>55408</v>
+        <v>55512</v>
       </c>
       <c r="C28" s="4">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D28" s="4">
-        <v>12338</v>
+        <v>12344</v>
       </c>
       <c r="E28" s="4">
-        <v>69752</v>
+        <v>69866</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>55676</v>
+        <v>55753</v>
       </c>
       <c r="C29" s="4">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="D29" s="4">
-        <v>16786</v>
+        <v>16796</v>
       </c>
       <c r="E29" s="4">
-        <v>74537</v>
+        <v>74631</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>19669</v>
+        <v>19703</v>
       </c>
       <c r="C30" s="4">
-        <v>2043</v>
+        <v>2066</v>
       </c>
       <c r="D30" s="4">
-        <v>13436</v>
+        <v>13449</v>
       </c>
       <c r="E30" s="4">
-        <v>35148</v>
+        <v>35218</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>6887</v>
+        <v>6892</v>
       </c>
       <c r="C31" s="4">
         <v>317</v>
       </c>
       <c r="D31" s="4">
-        <v>10253</v>
+        <v>10302</v>
       </c>
       <c r="E31" s="4">
-        <v>17457</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>408134</v>
+        <v>408849</v>
       </c>
       <c r="C32" s="4">
-        <v>10707</v>
+        <v>10718</v>
       </c>
       <c r="D32" s="4">
-        <v>136956</v>
+        <v>137187</v>
       </c>
       <c r="E32" s="4">
-        <v>555797</v>
+        <v>556754</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>8886</v>
+        <v>8898</v>
       </c>
       <c r="C33" s="4">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D33" s="4">
         <v>3743</v>
       </c>
       <c r="E33" s="4">
-        <v>13150</v>
+        <v>13163</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="C34" s="4">
         <v>1080</v>
       </c>
       <c r="D34" s="4">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="E34" s="4">
-        <v>5026</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>18089</v>
+        <v>18113</v>
       </c>
       <c r="C35" s="4">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="D35" s="4">
-        <v>11291</v>
+        <v>11300</v>
       </c>
       <c r="E35" s="4">
-        <v>32713</v>
+        <v>32748</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>6720</v>
+        <v>6804</v>
       </c>
       <c r="C36" s="4">
         <v>404</v>
@@ -1658,7 +1658,7 @@
         <v>3241</v>
       </c>
       <c r="E36" s="4">
-        <v>10365</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>13488</v>
+        <v>13520</v>
       </c>
       <c r="C37" s="4">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D37" s="4">
-        <v>3202</v>
+        <v>3207</v>
       </c>
       <c r="E37" s="4">
-        <v>17573</v>
+        <v>17613</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>36212</v>
+        <v>36270</v>
       </c>
       <c r="C38" s="4">
-        <v>1172</v>
+        <v>1179</v>
       </c>
       <c r="D38" s="4">
-        <v>26594</v>
+        <v>26629</v>
       </c>
       <c r="E38" s="4">
-        <v>63978</v>
+        <v>64078</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>5795</v>
+        <v>6010</v>
       </c>
       <c r="C39" s="4">
         <v>413</v>
       </c>
       <c r="D39" s="4">
-        <v>6308</v>
+        <v>6314</v>
       </c>
       <c r="E39" s="4">
-        <v>12516</v>
+        <v>12737</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6338</v>
+        <v>6347</v>
       </c>
       <c r="C40" s="4">
         <v>630</v>
       </c>
       <c r="D40" s="4">
-        <v>4624</v>
+        <v>4648</v>
       </c>
       <c r="E40" s="4">
-        <v>11592</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E41" s="4">
-        <v>1936</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="C42" s="4">
         <v>55</v>
       </c>
       <c r="D42" s="4">
-        <v>3223</v>
+        <v>3229</v>
       </c>
       <c r="E42" s="4">
-        <v>6150</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4233</v>
+        <v>4237</v>
       </c>
       <c r="C43" s="4">
         <v>158</v>
       </c>
       <c r="D43" s="4">
-        <v>4785</v>
+        <v>4792</v>
       </c>
       <c r="E43" s="4">
-        <v>9176</v>
+        <v>9187</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1470787</v>
+        <v>1474202</v>
       </c>
       <c r="C44" s="4">
-        <v>105688</v>
+        <v>105919</v>
       </c>
       <c r="D44" s="4">
-        <v>260608</v>
+        <v>261959</v>
       </c>
       <c r="E44" s="4">
-        <v>1837083</v>
+        <v>1842080</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1706</v>
+        <v>1719</v>
       </c>
       <c r="C45" s="4">
         <v>118</v>
       </c>
       <c r="D45" s="4">
-        <v>2637</v>
+        <v>2652</v>
       </c>
       <c r="E45" s="4">
-        <v>4461</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>17764</v>
+        <v>17793</v>
       </c>
       <c r="C46" s="4">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D46" s="4">
-        <v>9091</v>
+        <v>9106</v>
       </c>
       <c r="E46" s="4">
-        <v>28041</v>
+        <v>28089</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>174587</v>
+        <v>175146</v>
       </c>
       <c r="C47" s="4">
-        <v>11196</v>
+        <v>11264</v>
       </c>
       <c r="D47" s="4">
-        <v>47355</v>
+        <v>47492</v>
       </c>
       <c r="E47" s="4">
-        <v>233138</v>
+        <v>233902</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>10441</v>
+        <v>10456</v>
       </c>
       <c r="C48" s="4">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D48" s="4">
-        <v>5430</v>
+        <v>5470</v>
       </c>
       <c r="E48" s="4">
-        <v>16229</v>
+        <v>16285</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C49" s="4">
         <v>34</v>
       </c>
       <c r="D49" s="4">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="E49" s="4">
-        <v>5466</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>30996</v>
+        <v>31057</v>
       </c>
       <c r="C50" s="4">
-        <v>2077</v>
+        <v>2083</v>
       </c>
       <c r="D50" s="4">
-        <v>11281</v>
+        <v>11297</v>
       </c>
       <c r="E50" s="4">
-        <v>44354</v>
+        <v>44437</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>130602</v>
+        <v>130974</v>
       </c>
       <c r="C51" s="4">
-        <v>2394</v>
+        <v>2398</v>
       </c>
       <c r="D51" s="4">
-        <v>23039</v>
+        <v>23104</v>
       </c>
       <c r="E51" s="4">
-        <v>156035</v>
+        <v>156476</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="C52" s="4">
         <v>66</v>
       </c>
       <c r="D52" s="4">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E52" s="4">
-        <v>2162</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>4193</v>
+        <v>4202</v>
       </c>
       <c r="E54" s="4">
-        <v>5378</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3439</v>
+        <v>3445</v>
       </c>
       <c r="C55" s="4">
         <v>67</v>
       </c>
       <c r="D55" s="4">
-        <v>3138</v>
+        <v>3147</v>
       </c>
       <c r="E55" s="4">
-        <v>6644</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2683</v>
+        <v>2688</v>
       </c>
       <c r="C56" s="4">
         <v>40</v>
@@ -1998,7 +1998,7 @@
         <v>354</v>
       </c>
       <c r="E56" s="4">
-        <v>3077</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3397</v>
+        <v>3408</v>
       </c>
       <c r="C57" s="4">
         <v>526</v>
       </c>
       <c r="D57" s="4">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="E57" s="4">
-        <v>7078</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>3605232</v>
+        <v>3614119</v>
       </c>
       <c r="C58" s="4">
-        <v>160068</v>
+        <v>160386</v>
       </c>
       <c r="D58" s="4">
-        <v>529577</v>
+        <v>531472</v>
       </c>
       <c r="E58" s="4">
-        <v>4294877</v>
+        <v>4305977</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>11536</v>
+        <v>11546</v>
       </c>
       <c r="C59" s="4">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D59" s="4">
-        <v>4865</v>
+        <v>4872</v>
       </c>
       <c r="E59" s="4">
-        <v>16981</v>
+        <v>16999</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>14688</v>
+        <v>14717</v>
       </c>
       <c r="C60" s="4">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D60" s="4">
-        <v>6783</v>
+        <v>6808</v>
       </c>
       <c r="E60" s="4">
-        <v>22004</v>
+        <v>22065</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>7023</v>
+        <v>7035</v>
       </c>
       <c r="C61" s="4">
         <v>1168</v>
       </c>
       <c r="D61" s="4">
-        <v>5252</v>
+        <v>5263</v>
       </c>
       <c r="E61" s="4">
-        <v>13443</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>2879</v>
+        <v>2888</v>
       </c>
       <c r="C62" s="4">
         <v>259</v>
       </c>
       <c r="D62" s="4">
-        <v>2575</v>
+        <v>2579</v>
       </c>
       <c r="E62" s="4">
-        <v>5713</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>883803</v>
+        <v>885876</v>
       </c>
       <c r="C63" s="4">
-        <v>78426</v>
+        <v>78552</v>
       </c>
       <c r="D63" s="4">
-        <v>221209</v>
+        <v>222068</v>
       </c>
       <c r="E63" s="4">
-        <v>1183438</v>
+        <v>1186496</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E64" s="4">
-        <v>1634</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>25538</v>
+        <v>25617</v>
       </c>
       <c r="C65" s="4">
         <v>128</v>
@@ -2151,7 +2151,7 @@
         <v>39165</v>
       </c>
       <c r="E65" s="4">
-        <v>64831</v>
+        <v>64910</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="C66" s="4">
         <v>478</v>
       </c>
       <c r="D66" s="4">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="E66" s="4">
-        <v>4373</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>23488</v>
+        <v>23518</v>
       </c>
       <c r="C67" s="4">
         <v>3317</v>
       </c>
       <c r="D67" s="4">
-        <v>11251</v>
+        <v>11266</v>
       </c>
       <c r="E67" s="4">
-        <v>38056</v>
+        <v>38101</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>7178</v>
+        <v>7190</v>
       </c>
       <c r="C68" s="4">
         <v>505</v>
       </c>
       <c r="D68" s="4">
-        <v>8085</v>
+        <v>8096</v>
       </c>
       <c r="E68" s="4">
-        <v>15768</v>
+        <v>15791</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>85931</v>
+        <v>86107</v>
       </c>
       <c r="C69" s="4">
-        <v>6193</v>
+        <v>6205</v>
       </c>
       <c r="D69" s="4">
-        <v>51988</v>
+        <v>52325</v>
       </c>
       <c r="E69" s="4">
-        <v>144112</v>
+        <v>144637</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="C70" s="4">
         <v>41</v>
       </c>
       <c r="D70" s="4">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E70" s="4">
-        <v>2284</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1179577</v>
+        <v>1183007</v>
       </c>
       <c r="C71" s="4">
-        <v>22317</v>
+        <v>22336</v>
       </c>
       <c r="D71" s="4">
-        <v>565406</v>
+        <v>566664</v>
       </c>
       <c r="E71" s="4">
-        <v>1767300</v>
+        <v>1772007</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>241345</v>
+        <v>241692</v>
       </c>
       <c r="C72" s="4">
-        <v>9129</v>
+        <v>9141</v>
       </c>
       <c r="D72" s="4">
-        <v>48287</v>
+        <v>48494</v>
       </c>
       <c r="E72" s="4">
-        <v>298761</v>
+        <v>299327</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>30635</v>
+        <v>30724</v>
       </c>
       <c r="C73" s="4">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="D73" s="4">
-        <v>13749</v>
+        <v>13774</v>
       </c>
       <c r="E73" s="4">
-        <v>46157</v>
+        <v>46279</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>17845</v>
+        <v>17864</v>
       </c>
       <c r="C74" s="4">
         <v>465</v>
       </c>
       <c r="D74" s="4">
-        <v>7929</v>
+        <v>7936</v>
       </c>
       <c r="E74" s="4">
-        <v>26239</v>
+        <v>26265</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>42441</v>
+        <v>42564</v>
       </c>
       <c r="C75" s="4">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D75" s="4">
-        <v>10862</v>
+        <v>10888</v>
       </c>
       <c r="E75" s="4">
-        <v>54380</v>
+        <v>54531</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>21671</v>
+        <v>21699</v>
       </c>
       <c r="C76" s="4">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D76" s="4">
-        <v>6516</v>
+        <v>6528</v>
       </c>
       <c r="E76" s="4">
-        <v>29114</v>
+        <v>29155</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2352,10 +2352,10 @@
         <v>40</v>
       </c>
       <c r="D77" s="4">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E77" s="4">
-        <v>2379</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>4288</v>
+        <v>4295</v>
       </c>
       <c r="C78" s="4">
         <v>169</v>
@@ -2372,7 +2372,7 @@
         <v>752</v>
       </c>
       <c r="E78" s="4">
-        <v>5209</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1069688</v>
+        <v>1073197</v>
       </c>
       <c r="C80" s="4">
-        <v>48413</v>
+        <v>48499</v>
       </c>
       <c r="D80" s="4">
-        <v>144414</v>
+        <v>144887</v>
       </c>
       <c r="E80" s="4">
-        <v>1262515</v>
+        <v>1266583</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>6712</v>
+        <v>6733</v>
       </c>
       <c r="C81" s="4">
         <v>574</v>
       </c>
       <c r="D81" s="4">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="E81" s="4">
-        <v>8943</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>22373</v>
+        <v>22396</v>
       </c>
       <c r="C82" s="4">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D82" s="4">
-        <v>17305</v>
+        <v>17315</v>
       </c>
       <c r="E82" s="4">
-        <v>40481</v>
+        <v>40515</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>30442</v>
+        <v>30715</v>
       </c>
       <c r="C83" s="4">
         <v>570</v>
       </c>
       <c r="D83" s="4">
-        <v>8282</v>
+        <v>8474</v>
       </c>
       <c r="E83" s="4">
-        <v>39294</v>
+        <v>39759</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>4964</v>
+        <v>4986</v>
       </c>
       <c r="C84" s="4">
         <v>302</v>
       </c>
       <c r="D84" s="4">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E84" s="4">
-        <v>7250</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>573546</v>
+        <v>574866</v>
       </c>
       <c r="C85" s="4">
-        <v>25184</v>
+        <v>25218</v>
       </c>
       <c r="D85" s="4">
-        <v>82904</v>
+        <v>83142</v>
       </c>
       <c r="E85" s="4">
-        <v>681634</v>
+        <v>683226</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>3609</v>
+        <v>3623</v>
       </c>
       <c r="C86" s="4">
         <v>68</v>
       </c>
       <c r="D86" s="4">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="E86" s="4">
-        <v>5457</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>20661</v>
+        <v>20688</v>
       </c>
       <c r="C87" s="4">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="D87" s="4">
-        <v>9975</v>
+        <v>9987</v>
       </c>
       <c r="E87" s="4">
-        <v>31527</v>
+        <v>31572</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4461</v>
+        <v>4474</v>
       </c>
       <c r="C89" s="4">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D89" s="4">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="E89" s="4">
-        <v>8394</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>16682</v>
+        <v>16710</v>
       </c>
       <c r="C90" s="4">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D90" s="4">
-        <v>9939</v>
+        <v>9946</v>
       </c>
       <c r="E90" s="4">
-        <v>27100</v>
+        <v>27137</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>11899</v>
+        <v>11933</v>
       </c>
       <c r="C91" s="4">
         <v>1232</v>
       </c>
       <c r="D91" s="4">
-        <v>8815</v>
+        <v>8937</v>
       </c>
       <c r="E91" s="4">
-        <v>21946</v>
+        <v>22102</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>157985</v>
+        <v>158247</v>
       </c>
       <c r="C92" s="4">
-        <v>5758</v>
+        <v>5779</v>
       </c>
       <c r="D92" s="4">
-        <v>41482</v>
+        <v>41564</v>
       </c>
       <c r="E92" s="4">
-        <v>205225</v>
+        <v>205590</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>76684</v>
+        <v>76791</v>
       </c>
       <c r="C93" s="4">
-        <v>11864</v>
+        <v>11870</v>
       </c>
       <c r="D93" s="4">
-        <v>40535</v>
+        <v>40620</v>
       </c>
       <c r="E93" s="4">
-        <v>129083</v>
+        <v>129281</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>54575</v>
+        <v>54657</v>
       </c>
       <c r="C94" s="4">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="D94" s="4">
-        <v>12234</v>
+        <v>12259</v>
       </c>
       <c r="E94" s="4">
-        <v>68210</v>
+        <v>68323</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>139454</v>
+        <v>139752</v>
       </c>
       <c r="C95" s="4">
-        <v>5553</v>
+        <v>5581</v>
       </c>
       <c r="D95" s="4">
-        <v>42469</v>
+        <v>42624</v>
       </c>
       <c r="E95" s="4">
-        <v>187476</v>
+        <v>187957</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>28454</v>
+        <v>28531</v>
       </c>
       <c r="C96" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D96" s="4">
-        <v>6667</v>
+        <v>6674</v>
       </c>
       <c r="E96" s="4">
-        <v>35628</v>
+        <v>35713</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,7 +2686,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1795</v>
+        <v>1814</v>
       </c>
       <c r="C97" s="4">
         <v>77</v>
@@ -2695,7 +2695,7 @@
         <v>2903</v>
       </c>
       <c r="E97" s="4">
-        <v>4775</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>9898</v>
+        <v>9938</v>
       </c>
       <c r="C98" s="4">
         <v>433</v>
       </c>
       <c r="D98" s="4">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="E98" s="4">
-        <v>13991</v>
+        <v>14034</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1834</v>
+        <v>1843</v>
       </c>
       <c r="C99" s="4">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D99" s="4">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="E99" s="4">
-        <v>5932</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,7 +2737,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2277</v>
+        <v>2289</v>
       </c>
       <c r="C100" s="4">
         <v>294</v>
@@ -2746,7 +2746,7 @@
         <v>2670</v>
       </c>
       <c r="E100" s="4">
-        <v>5241</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>39510</v>
+        <v>39597</v>
       </c>
       <c r="C101" s="4">
-        <v>4216</v>
+        <v>4230</v>
       </c>
       <c r="D101" s="4">
-        <v>22416</v>
+        <v>22476</v>
       </c>
       <c r="E101" s="4">
-        <v>66142</v>
+        <v>66303</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>6547947</v>
+        <v>6567680</v>
       </c>
       <c r="C102" s="4">
-        <v>266583</v>
+        <v>267002</v>
       </c>
       <c r="D102" s="4">
-        <v>950523</v>
+        <v>953309</v>
       </c>
       <c r="E102" s="4">
-        <v>7765053</v>
+        <v>7787991</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>81427</v>
+        <v>81542</v>
       </c>
       <c r="C103" s="4">
-        <v>8932</v>
+        <v>8941</v>
       </c>
       <c r="D103" s="4">
-        <v>28016</v>
+        <v>28081</v>
       </c>
       <c r="E103" s="4">
-        <v>118375</v>
+        <v>118564</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2811,10 +2811,10 @@
         <v>69</v>
       </c>
       <c r="D104" s="4">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E104" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C105" s="4">
         <v>42</v>
       </c>
       <c r="D105" s="4">
-        <v>2878</v>
+        <v>2894</v>
       </c>
       <c r="E105" s="4">
-        <v>4730</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>409490</v>
+        <v>410487</v>
       </c>
       <c r="C106" s="4">
-        <v>15010</v>
+        <v>15089</v>
       </c>
       <c r="D106" s="4">
-        <v>52912</v>
+        <v>52964</v>
       </c>
       <c r="E106" s="4">
-        <v>477412</v>
+        <v>478540</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C107" s="4">
         <v>498</v>
       </c>
       <c r="D107" s="4">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E107" s="4">
-        <v>2122</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>44250</v>
+        <v>44340</v>
       </c>
       <c r="C108" s="4">
-        <v>3046</v>
+        <v>3056</v>
       </c>
       <c r="D108" s="4">
-        <v>26357</v>
+        <v>26414</v>
       </c>
       <c r="E108" s="4">
-        <v>73653</v>
+        <v>73810</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>745931</v>
+        <v>747283</v>
       </c>
       <c r="C109" s="4">
-        <v>20141</v>
+        <v>20152</v>
       </c>
       <c r="D109" s="4">
-        <v>371449</v>
+        <v>372275</v>
       </c>
       <c r="E109" s="4">
-        <v>1137521</v>
+        <v>1139710</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>40246</v>
+        <v>40306</v>
       </c>
       <c r="C110" s="4">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D110" s="4">
-        <v>15985</v>
+        <v>16067</v>
       </c>
       <c r="E110" s="4">
-        <v>57428</v>
+        <v>57571</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>15112</v>
+        <v>15163</v>
       </c>
       <c r="C111" s="4">
         <v>239</v>
       </c>
       <c r="D111" s="4">
-        <v>5834</v>
+        <v>5848</v>
       </c>
       <c r="E111" s="4">
-        <v>21185</v>
+        <v>21250</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>51127</v>
+        <v>51247</v>
       </c>
       <c r="C112" s="4">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="D112" s="4">
-        <v>39957</v>
+        <v>40117</v>
       </c>
       <c r="E112" s="4">
-        <v>94208</v>
+        <v>94492</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>25495</v>
+        <v>25542</v>
       </c>
       <c r="C113" s="4">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="D113" s="4">
-        <v>11491</v>
+        <v>11509</v>
       </c>
       <c r="E113" s="4">
-        <v>39084</v>
+        <v>39153</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>20473</v>
+        <v>20495</v>
       </c>
       <c r="C114" s="4">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D114" s="4">
-        <v>9359</v>
+        <v>9377</v>
       </c>
       <c r="E114" s="4">
-        <v>30501</v>
+        <v>30544</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>22130</v>
+        <v>22146</v>
       </c>
       <c r="C115" s="4">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D115" s="4">
-        <v>14320</v>
+        <v>14425</v>
       </c>
       <c r="E115" s="4">
-        <v>37347</v>
+        <v>37469</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="C116" s="4">
         <v>49</v>
       </c>
       <c r="D116" s="4">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="E116" s="4">
-        <v>4896</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>121462</v>
+        <v>121697</v>
       </c>
       <c r="C117" s="4">
-        <v>4924</v>
+        <v>4935</v>
       </c>
       <c r="D117" s="4">
-        <v>40192</v>
+        <v>40384</v>
       </c>
       <c r="E117" s="4">
-        <v>166578</v>
+        <v>167016</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>12057</v>
+        <v>12088</v>
       </c>
       <c r="C118" s="4">
         <v>1686</v>
       </c>
       <c r="D118" s="4">
-        <v>9103</v>
+        <v>9109</v>
       </c>
       <c r="E118" s="4">
-        <v>22846</v>
+        <v>22883</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C119" s="4">
         <v>24</v>
       </c>
       <c r="D119" s="4">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E119" s="4">
-        <v>1221</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>4296</v>
+        <v>4300</v>
       </c>
       <c r="C120" s="4">
         <v>255</v>
       </c>
       <c r="D120" s="4">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="E120" s="4">
-        <v>6190</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>10357</v>
+        <v>10371</v>
       </c>
       <c r="C121" s="4">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D121" s="4">
-        <v>5293</v>
+        <v>5302</v>
       </c>
       <c r="E121" s="4">
-        <v>16123</v>
+        <v>16150</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>26176</v>
+        <v>26218</v>
       </c>
       <c r="C122" s="4">
         <v>2987</v>
       </c>
       <c r="D122" s="4">
-        <v>13817</v>
+        <v>13849</v>
       </c>
       <c r="E122" s="4">
-        <v>42980</v>
+        <v>43054</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>225117</v>
+        <v>225377</v>
       </c>
       <c r="C124" s="4">
-        <v>15695</v>
+        <v>15723</v>
       </c>
       <c r="D124" s="4">
-        <v>92139</v>
+        <v>92275</v>
       </c>
       <c r="E124" s="4">
-        <v>332951</v>
+        <v>333375</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>14944</v>
+        <v>14945</v>
       </c>
       <c r="C125" s="4">
         <v>752</v>
       </c>
       <c r="D125" s="4">
-        <v>13567</v>
+        <v>13568</v>
       </c>
       <c r="E125" s="4">
-        <v>29263</v>
+        <v>29265</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>72472</v>
+        <v>72885</v>
       </c>
       <c r="C126" s="4">
-        <v>10657</v>
+        <v>10668</v>
       </c>
       <c r="D126" s="4">
-        <v>32691</v>
+        <v>32732</v>
       </c>
       <c r="E126" s="4">
-        <v>115820</v>
+        <v>116285</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>180644</v>
+        <v>181064</v>
       </c>
       <c r="C127" s="4">
-        <v>8737</v>
+        <v>8751</v>
       </c>
       <c r="D127" s="4">
-        <v>42111</v>
+        <v>42407</v>
       </c>
       <c r="E127" s="4">
-        <v>231492</v>
+        <v>232222</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>10280</v>
+        <v>10281</v>
       </c>
       <c r="C128" s="4">
         <v>234</v>
       </c>
       <c r="D128" s="4">
-        <v>7666</v>
+        <v>7680</v>
       </c>
       <c r="E128" s="4">
-        <v>18180</v>
+        <v>18195</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>21181</v>
+        <v>21197</v>
       </c>
       <c r="C129" s="4">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D129" s="4">
-        <v>11896</v>
+        <v>11922</v>
       </c>
       <c r="E129" s="4">
-        <v>33640</v>
+        <v>33683</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>161414</v>
+        <v>161808</v>
       </c>
       <c r="C130" s="4">
-        <v>6863</v>
+        <v>6869</v>
       </c>
       <c r="D130" s="4">
-        <v>47584</v>
+        <v>47694</v>
       </c>
       <c r="E130" s="4">
-        <v>215861</v>
+        <v>216371</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>40013</v>
+        <v>40088</v>
       </c>
       <c r="C131" s="4">
-        <v>2489</v>
+        <v>2510</v>
       </c>
       <c r="D131" s="4">
-        <v>19636</v>
+        <v>19670</v>
       </c>
       <c r="E131" s="4">
-        <v>62138</v>
+        <v>62268</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="E133" s="4">
-        <v>1313</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>44091</v>
+        <v>44207</v>
       </c>
       <c r="C134" s="4">
-        <v>1631</v>
+        <v>1647</v>
       </c>
       <c r="D134" s="4">
-        <v>40054</v>
+        <v>40124</v>
       </c>
       <c r="E134" s="4">
-        <v>85776</v>
+        <v>85978</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2183</v>
+        <v>2193</v>
       </c>
       <c r="C135" s="4">
         <v>61</v>
       </c>
       <c r="D135" s="4">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="E135" s="4">
-        <v>3428</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3372,10 +3372,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="4">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E137" s="4">
-        <v>3932</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>37268</v>
+        <v>37296</v>
       </c>
       <c r="C138" s="4">
-        <v>5391</v>
+        <v>5395</v>
       </c>
       <c r="D138" s="4">
-        <v>16048</v>
+        <v>16073</v>
       </c>
       <c r="E138" s="4">
-        <v>58707</v>
+        <v>58764</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="C139" s="4">
         <v>52</v>
       </c>
       <c r="D139" s="4">
-        <v>5257</v>
+        <v>5268</v>
       </c>
       <c r="E139" s="4">
-        <v>6368</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>10762</v>
+        <v>11152</v>
       </c>
       <c r="C140" s="4">
         <v>323</v>
       </c>
       <c r="D140" s="4">
-        <v>3060</v>
+        <v>3418</v>
       </c>
       <c r="E140" s="4">
-        <v>14145</v>
+        <v>14893</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>29445</v>
+        <v>29490</v>
       </c>
       <c r="C141" s="4">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="D141" s="4">
-        <v>17422</v>
+        <v>17494</v>
       </c>
       <c r="E141" s="4">
-        <v>49751</v>
+        <v>49869</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>8224</v>
+        <v>8234</v>
       </c>
       <c r="C142" s="4">
         <v>164</v>
       </c>
       <c r="D142" s="4">
-        <v>8546</v>
+        <v>8556</v>
       </c>
       <c r="E142" s="4">
-        <v>16934</v>
+        <v>16954</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>26999</v>
+        <v>27022</v>
       </c>
       <c r="C143" s="4">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D143" s="4">
-        <v>7606</v>
+        <v>7623</v>
       </c>
       <c r="E143" s="4">
-        <v>35339</v>
+        <v>35380</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>17600</v>
+        <v>17634</v>
       </c>
       <c r="C144" s="4">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="D144" s="4">
-        <v>11288</v>
+        <v>11441</v>
       </c>
       <c r="E144" s="4">
-        <v>30048</v>
+        <v>30239</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>12043</v>
+        <v>12068</v>
       </c>
       <c r="C145" s="4">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D145" s="4">
-        <v>5913</v>
+        <v>5917</v>
       </c>
       <c r="E145" s="4">
-        <v>18368</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>15372</v>
+        <v>15404</v>
       </c>
       <c r="C146" s="4">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D146" s="4">
-        <v>6202</v>
+        <v>6218</v>
       </c>
       <c r="E146" s="4">
-        <v>22391</v>
+        <v>22440</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>85778</v>
+        <v>85925</v>
       </c>
       <c r="C147" s="4">
-        <v>4594</v>
+        <v>4617</v>
       </c>
       <c r="D147" s="4">
-        <v>21101</v>
+        <v>21137</v>
       </c>
       <c r="E147" s="4">
-        <v>111473</v>
+        <v>111679</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>37940</v>
+        <v>37963</v>
       </c>
       <c r="C148" s="4">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D148" s="4">
-        <v>30066</v>
+        <v>30094</v>
       </c>
       <c r="E148" s="4">
-        <v>68752</v>
+        <v>68804</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3576,10 +3576,10 @@
         <v>259</v>
       </c>
       <c r="D149" s="4">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E149" s="4">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>8901</v>
+        <v>8917</v>
       </c>
       <c r="C150" s="4">
         <v>1305</v>
       </c>
       <c r="D150" s="4">
-        <v>5887</v>
+        <v>5904</v>
       </c>
       <c r="E150" s="4">
-        <v>16093</v>
+        <v>16126</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>17565</v>
+        <v>17595</v>
       </c>
       <c r="C151" s="4">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D151" s="4">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E151" s="4">
-        <v>22332</v>
+        <v>22372</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3627,10 +3627,10 @@
         <v>4</v>
       </c>
       <c r="D152" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E152" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>308021</v>
+        <v>308623</v>
       </c>
       <c r="C153" s="4">
-        <v>10850</v>
+        <v>10907</v>
       </c>
       <c r="D153" s="4">
-        <v>152245</v>
+        <v>152624</v>
       </c>
       <c r="E153" s="4">
-        <v>471116</v>
+        <v>472154</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>3981</v>
+        <v>3986</v>
       </c>
       <c r="C154" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D154" s="4">
-        <v>3957</v>
+        <v>3959</v>
       </c>
       <c r="E154" s="4">
-        <v>8100</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>18819</v>
+        <v>18841</v>
       </c>
       <c r="C155" s="4">
         <v>398</v>
       </c>
       <c r="D155" s="4">
-        <v>5015</v>
+        <v>5139</v>
       </c>
       <c r="E155" s="4">
-        <v>24232</v>
+        <v>24378</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>3864</v>
+        <v>3869</v>
       </c>
       <c r="C156" s="4">
         <v>862</v>
       </c>
       <c r="D156" s="4">
-        <v>3521</v>
+        <v>3525</v>
       </c>
       <c r="E156" s="4">
-        <v>8247</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="C157" s="4">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D157" s="4">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="E157" s="4">
-        <v>3252</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="C158" s="4">
         <v>103</v>
       </c>
       <c r="D158" s="4">
-        <v>1602</v>
+        <v>1619</v>
       </c>
       <c r="E158" s="4">
-        <v>4115</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>46305</v>
+        <v>46376</v>
       </c>
       <c r="C159" s="4">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="D159" s="4">
-        <v>7162</v>
+        <v>7172</v>
       </c>
       <c r="E159" s="4">
-        <v>55396</v>
+        <v>55478</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>82684</v>
+        <v>82780</v>
       </c>
       <c r="C160" s="4">
         <v>510</v>
       </c>
       <c r="D160" s="4">
-        <v>21261</v>
+        <v>21338</v>
       </c>
       <c r="E160" s="4">
-        <v>104455</v>
+        <v>104628</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3371</v>
+        <v>3385</v>
       </c>
       <c r="C161" s="4">
         <v>88</v>
       </c>
       <c r="D161" s="4">
-        <v>3661</v>
+        <v>3668</v>
       </c>
       <c r="E161" s="4">
-        <v>7120</v>
+        <v>7141</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>393835</v>
+        <v>395403</v>
       </c>
       <c r="C162" s="4">
-        <v>11994</v>
+        <v>12016</v>
       </c>
       <c r="D162" s="4">
-        <v>132713</v>
+        <v>133131</v>
       </c>
       <c r="E162" s="4">
-        <v>538542</v>
+        <v>540550</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>46814</v>
+        <v>46876</v>
       </c>
       <c r="C164" s="4">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="D164" s="4">
-        <v>13634</v>
+        <v>13659</v>
       </c>
       <c r="E164" s="4">
-        <v>62047</v>
+        <v>62138</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="C165" s="4">
         <v>28</v>
       </c>
       <c r="D165" s="4">
-        <v>1755</v>
+        <v>1771</v>
       </c>
       <c r="E165" s="4">
-        <v>4128</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>74256</v>
+        <v>74560</v>
       </c>
       <c r="C166" s="4">
-        <v>10302</v>
+        <v>10338</v>
       </c>
       <c r="D166" s="4">
-        <v>76967</v>
+        <v>77239</v>
       </c>
       <c r="E166" s="4">
-        <v>161525</v>
+        <v>162137</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>24177</v>
+        <v>24225</v>
       </c>
       <c r="C167" s="4">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D167" s="4">
-        <v>12330</v>
+        <v>12358</v>
       </c>
       <c r="E167" s="4">
-        <v>37747</v>
+        <v>37824</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>7344</v>
+        <v>7402</v>
       </c>
       <c r="C168" s="4">
         <v>125</v>
       </c>
       <c r="D168" s="4">
-        <v>2555</v>
+        <v>2571</v>
       </c>
       <c r="E168" s="4">
-        <v>10024</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>8551</v>
+        <v>8568</v>
       </c>
       <c r="C169" s="4">
         <v>79</v>
       </c>
       <c r="D169" s="4">
-        <v>5558</v>
+        <v>5560</v>
       </c>
       <c r="E169" s="4">
-        <v>14188</v>
+        <v>14207</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>17018</v>
+        <v>17055</v>
       </c>
       <c r="C170" s="4">
         <v>1197</v>
       </c>
       <c r="D170" s="4">
-        <v>7913</v>
+        <v>7925</v>
       </c>
       <c r="E170" s="4">
-        <v>26128</v>
+        <v>26177</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>628172</v>
+        <v>629949</v>
       </c>
       <c r="C171" s="4">
-        <v>45540</v>
+        <v>45624</v>
       </c>
       <c r="D171" s="4">
-        <v>130240</v>
+        <v>130599</v>
       </c>
       <c r="E171" s="4">
-        <v>803952</v>
+        <v>806172</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>10155</v>
+        <v>10196</v>
       </c>
       <c r="C172" s="4">
         <v>1164</v>
       </c>
       <c r="D172" s="4">
-        <v>5217</v>
+        <v>5264</v>
       </c>
       <c r="E172" s="4">
-        <v>16536</v>
+        <v>16624</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>8669</v>
+        <v>8683</v>
       </c>
       <c r="C173" s="4">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D173" s="4">
-        <v>7892</v>
+        <v>7893</v>
       </c>
       <c r="E173" s="4">
-        <v>17358</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4001,10 +4001,10 @@
         <v>16</v>
       </c>
       <c r="D174" s="4">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E174" s="4">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>59549</v>
+        <v>59653</v>
       </c>
       <c r="C175" s="4">
-        <v>4055</v>
+        <v>4061</v>
       </c>
       <c r="D175" s="4">
-        <v>19999</v>
+        <v>20020</v>
       </c>
       <c r="E175" s="4">
-        <v>83603</v>
+        <v>83734</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>39050</v>
+        <v>39150</v>
       </c>
       <c r="C176" s="4">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="D176" s="4">
-        <v>26396</v>
+        <v>26446</v>
       </c>
       <c r="E176" s="4">
-        <v>67384</v>
+        <v>67537</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>6593</v>
+        <v>6603</v>
       </c>
       <c r="C177" s="4">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D177" s="4">
-        <v>4805</v>
+        <v>4812</v>
       </c>
       <c r="E177" s="4">
-        <v>12282</v>
+        <v>12301</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>9967</v>
+        <v>9973</v>
       </c>
       <c r="C178" s="4">
         <v>219</v>
       </c>
       <c r="D178" s="4">
-        <v>6839</v>
+        <v>6848</v>
       </c>
       <c r="E178" s="4">
-        <v>17025</v>
+        <v>17040</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>330488</v>
+        <v>331090</v>
       </c>
       <c r="C179" s="4">
-        <v>51410</v>
+        <v>51466</v>
       </c>
       <c r="D179" s="4">
-        <v>146625</v>
+        <v>147005</v>
       </c>
       <c r="E179" s="4">
-        <v>528523</v>
+        <v>529561</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="C180" s="4">
         <v>374</v>
       </c>
       <c r="D180" s="4">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="E180" s="4">
-        <v>2711</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,7 +4114,7 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C181" s="4">
         <v>372</v>
@@ -4123,7 +4123,7 @@
         <v>1214</v>
       </c>
       <c r="E181" s="4">
-        <v>2610</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>49815</v>
+        <v>49897</v>
       </c>
       <c r="C182" s="4">
-        <v>6848</v>
+        <v>6859</v>
       </c>
       <c r="D182" s="4">
-        <v>24831</v>
+        <v>24899</v>
       </c>
       <c r="E182" s="4">
-        <v>81494</v>
+        <v>81655</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>22541</v>
+        <v>22577</v>
       </c>
       <c r="C183" s="4">
         <v>1084</v>
       </c>
       <c r="D183" s="4">
-        <v>12004</v>
+        <v>12010</v>
       </c>
       <c r="E183" s="4">
-        <v>35629</v>
+        <v>35671</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>13815</v>
+        <v>13831</v>
       </c>
       <c r="C184" s="4">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D184" s="4">
-        <v>8029</v>
+        <v>8040</v>
       </c>
       <c r="E184" s="4">
-        <v>23146</v>
+        <v>23174</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>121383</v>
+        <v>121672</v>
       </c>
       <c r="C185" s="4">
-        <v>7510</v>
+        <v>7523</v>
       </c>
       <c r="D185" s="4">
-        <v>34879</v>
+        <v>34943</v>
       </c>
       <c r="E185" s="4">
-        <v>163772</v>
+        <v>164138</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="C186" s="4">
         <v>333</v>
       </c>
       <c r="D186" s="4">
-        <v>3099</v>
+        <v>3122</v>
       </c>
       <c r="E186" s="4">
-        <v>6376</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>14715</v>
+        <v>14718</v>
       </c>
       <c r="C187" s="4">
         <v>161</v>
       </c>
       <c r="D187" s="4">
-        <v>3684</v>
+        <v>3686</v>
       </c>
       <c r="E187" s="4">
-        <v>18560</v>
+        <v>18565</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>53379</v>
+        <v>53456</v>
       </c>
       <c r="C188" s="4">
-        <v>2780</v>
+        <v>2790</v>
       </c>
       <c r="D188" s="4">
-        <v>19324</v>
+        <v>19363</v>
       </c>
       <c r="E188" s="4">
-        <v>75483</v>
+        <v>75609</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>106443</v>
+        <v>106774</v>
       </c>
       <c r="C189" s="4">
-        <v>9279</v>
+        <v>9282</v>
       </c>
       <c r="D189" s="4">
-        <v>35382</v>
+        <v>35476</v>
       </c>
       <c r="E189" s="4">
-        <v>151104</v>
+        <v>151532</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7805</v>
+        <v>7809</v>
       </c>
       <c r="C190" s="4">
         <v>60</v>
       </c>
       <c r="D190" s="4">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="E190" s="4">
-        <v>10163</v>
+        <v>10168</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>5235</v>
+        <v>5244</v>
       </c>
       <c r="C191" s="4">
         <v>476</v>
       </c>
       <c r="D191" s="4">
-        <v>2799</v>
+        <v>2811</v>
       </c>
       <c r="E191" s="4">
-        <v>8510</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>75597</v>
+        <v>75877</v>
       </c>
       <c r="C192" s="4">
-        <v>18874</v>
+        <v>18885</v>
       </c>
       <c r="D192" s="4">
-        <v>32616</v>
+        <v>32741</v>
       </c>
       <c r="E192" s="4">
-        <v>127087</v>
+        <v>127503</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="C193" s="4">
         <v>43</v>
       </c>
       <c r="D193" s="4">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="E193" s="4">
-        <v>2004</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="C194" s="4">
         <v>106</v>
       </c>
       <c r="D194" s="4">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="E194" s="4">
-        <v>4216</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>7961</v>
+        <v>7968</v>
       </c>
       <c r="C195" s="4">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D195" s="4">
-        <v>7562</v>
+        <v>7582</v>
       </c>
       <c r="E195" s="4">
-        <v>16242</v>
+        <v>16271</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>11751</v>
+        <v>11754</v>
       </c>
       <c r="C196" s="4">
         <v>467</v>
       </c>
       <c r="D196" s="4">
-        <v>88377</v>
+        <v>88380</v>
       </c>
       <c r="E196" s="4">
-        <v>100595</v>
+        <v>100601</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>5400</v>
+        <v>5408</v>
       </c>
       <c r="C197" s="4">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D197" s="4">
-        <v>7217</v>
+        <v>7257</v>
       </c>
       <c r="E197" s="4">
-        <v>13105</v>
+        <v>13154</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>17884</v>
+        <v>17907</v>
       </c>
       <c r="C199" s="4">
         <v>514</v>
       </c>
       <c r="D199" s="4">
-        <v>12132</v>
+        <v>12170</v>
       </c>
       <c r="E199" s="4">
-        <v>30530</v>
+        <v>30591</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>106018</v>
+        <v>106213</v>
       </c>
       <c r="C200" s="4">
-        <v>7452</v>
+        <v>7487</v>
       </c>
       <c r="D200" s="4">
-        <v>17630</v>
+        <v>17739</v>
       </c>
       <c r="E200" s="4">
-        <v>131100</v>
+        <v>131439</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>7707</v>
+        <v>7745</v>
       </c>
       <c r="C201" s="4">
         <v>237</v>
       </c>
       <c r="D201" s="4">
-        <v>6808</v>
+        <v>6842</v>
       </c>
       <c r="E201" s="4">
-        <v>14752</v>
+        <v>14824</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>34384</v>
+        <v>34400</v>
       </c>
       <c r="C202" s="4">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="D202" s="4">
-        <v>8684</v>
+        <v>8706</v>
       </c>
       <c r="E202" s="4">
-        <v>45467</v>
+        <v>45508</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>10194</v>
+        <v>10207</v>
       </c>
       <c r="C203" s="4">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D203" s="4">
-        <v>4770</v>
+        <v>4773</v>
       </c>
       <c r="E203" s="4">
-        <v>15675</v>
+        <v>15692</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>9342</v>
+        <v>9351</v>
       </c>
       <c r="C204" s="4">
         <v>276</v>
       </c>
       <c r="D204" s="4">
-        <v>8175</v>
+        <v>8178</v>
       </c>
       <c r="E204" s="4">
-        <v>17793</v>
+        <v>17805</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>29111</v>
+        <v>29159</v>
       </c>
       <c r="C205" s="4">
-        <v>2415</v>
+        <v>2421</v>
       </c>
       <c r="D205" s="4">
-        <v>9445</v>
+        <v>9458</v>
       </c>
       <c r="E205" s="4">
-        <v>40971</v>
+        <v>41038</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>50533</v>
+        <v>50620</v>
       </c>
       <c r="C206" s="4">
-        <v>9661</v>
+        <v>9663</v>
       </c>
       <c r="D206" s="4">
-        <v>39851</v>
+        <v>39919</v>
       </c>
       <c r="E206" s="4">
-        <v>100045</v>
+        <v>100202</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5291</v>
+        <v>5299</v>
       </c>
       <c r="C207" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D207" s="4">
-        <v>3828</v>
+        <v>3837</v>
       </c>
       <c r="E207" s="4">
-        <v>9245</v>
+        <v>9264</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,7 +4573,7 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
@@ -4582,7 +4582,7 @@
         <v>826</v>
       </c>
       <c r="E208" s="4">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>25966</v>
+        <v>26053</v>
       </c>
       <c r="C209" s="4">
         <v>321</v>
       </c>
       <c r="D209" s="4">
-        <v>2972</v>
+        <v>2986</v>
       </c>
       <c r="E209" s="4">
-        <v>29259</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="C210" s="4">
         <v>91</v>
       </c>
       <c r="D210" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="E210" s="4">
-        <v>2307</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>19294</v>
+        <v>19410</v>
       </c>
       <c r="C211" s="4">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="D211" s="4">
-        <v>8763</v>
+        <v>8775</v>
       </c>
       <c r="E211" s="4">
-        <v>29430</v>
+        <v>29563</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,7 +4641,7 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C212" s="4">
         <v>163</v>
@@ -4650,7 +4650,7 @@
         <v>199</v>
       </c>
       <c r="E212" s="4">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>271747</v>
+        <v>272267</v>
       </c>
       <c r="C213" s="4">
-        <v>13028</v>
+        <v>13086</v>
       </c>
       <c r="D213" s="4">
-        <v>82997</v>
+        <v>83342</v>
       </c>
       <c r="E213" s="4">
-        <v>367772</v>
+        <v>368695</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>7464</v>
+        <v>7482</v>
       </c>
       <c r="C214" s="4">
         <v>435</v>
       </c>
       <c r="D214" s="4">
-        <v>7597</v>
+        <v>7648</v>
       </c>
       <c r="E214" s="4">
-        <v>15496</v>
+        <v>15565</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>73269</v>
+        <v>73346</v>
       </c>
       <c r="C215" s="4">
         <v>847</v>
       </c>
       <c r="D215" s="4">
-        <v>34693</v>
+        <v>34717</v>
       </c>
       <c r="E215" s="4">
-        <v>108809</v>
+        <v>108910</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>5781</v>
+        <v>5789</v>
       </c>
       <c r="C216" s="4">
         <v>161</v>
       </c>
       <c r="D216" s="4">
-        <v>4733</v>
+        <v>4738</v>
       </c>
       <c r="E216" s="4">
-        <v>10675</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C217" s="4">
         <v>23</v>
       </c>
       <c r="D217" s="4">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="E217" s="4">
-        <v>1571</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4743,16 +4743,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C218" s="4">
         <v>9</v>
       </c>
       <c r="D218" s="4">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="E218" s="4">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,7 +4760,7 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="C219" s="4">
         <v>45</v>
@@ -4769,7 +4769,7 @@
         <v>1201</v>
       </c>
       <c r="E219" s="4">
-        <v>2713</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>7889</v>
+        <v>7902</v>
       </c>
       <c r="C220" s="4">
         <v>413</v>
       </c>
       <c r="D220" s="4">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="E220" s="4">
-        <v>10251</v>
+        <v>10267</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2528582</v>
+        <v>2535339</v>
       </c>
       <c r="C221" s="4">
-        <v>111512</v>
+        <v>111725</v>
       </c>
       <c r="D221" s="4">
-        <v>490226</v>
+        <v>492352</v>
       </c>
       <c r="E221" s="4">
-        <v>3130320</v>
+        <v>3139416</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>112753</v>
+        <v>112848</v>
       </c>
       <c r="C222" s="4">
-        <v>4267</v>
+        <v>4273</v>
       </c>
       <c r="D222" s="4">
-        <v>121852</v>
+        <v>122153</v>
       </c>
       <c r="E222" s="4">
-        <v>238872</v>
+        <v>239274</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>5700</v>
+        <v>5706</v>
       </c>
       <c r="C224" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D224" s="4">
-        <v>3742</v>
+        <v>3752</v>
       </c>
       <c r="E224" s="4">
-        <v>9577</v>
+        <v>9594</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C225" s="4">
         <v>38</v>
       </c>
       <c r="D225" s="4">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E225" s="4">
-        <v>1207</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>31209</v>
+        <v>31262</v>
       </c>
       <c r="C226" s="4">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="D226" s="4">
-        <v>8641</v>
+        <v>8663</v>
       </c>
       <c r="E226" s="4">
-        <v>41259</v>
+        <v>41336</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>95165</v>
+        <v>95323</v>
       </c>
       <c r="C227" s="4">
-        <v>2997</v>
+        <v>3002</v>
       </c>
       <c r="D227" s="4">
-        <v>106344</v>
+        <v>106541</v>
       </c>
       <c r="E227" s="4">
-        <v>204506</v>
+        <v>204866</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1691393</v>
+        <v>1696604</v>
       </c>
       <c r="C228" s="4">
-        <v>69015</v>
+        <v>69683</v>
       </c>
       <c r="D228" s="4">
-        <v>384267</v>
+        <v>384986</v>
       </c>
       <c r="E228" s="4">
-        <v>2144675</v>
+        <v>2151273</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>17444</v>
+        <v>17462</v>
       </c>
       <c r="C229" s="4">
         <v>590</v>
       </c>
       <c r="D229" s="4">
-        <v>7639</v>
+        <v>7658</v>
       </c>
       <c r="E229" s="4">
-        <v>25673</v>
+        <v>25710</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>15683</v>
+        <v>15701</v>
       </c>
       <c r="C230" s="4">
         <v>1081</v>
       </c>
       <c r="D230" s="4">
-        <v>9925</v>
+        <v>9952</v>
       </c>
       <c r="E230" s="4">
-        <v>26689</v>
+        <v>26734</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>15537</v>
+        <v>15567</v>
       </c>
       <c r="C231" s="4">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="D231" s="4">
-        <v>8878</v>
+        <v>8894</v>
       </c>
       <c r="E231" s="4">
-        <v>26815</v>
+        <v>26865</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C232" s="4">
         <v>100</v>
       </c>
       <c r="D232" s="4">
-        <v>3735</v>
+        <v>3737</v>
       </c>
       <c r="E232" s="4">
-        <v>4954</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>38138</v>
+        <v>38180</v>
       </c>
       <c r="C233" s="4">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D233" s="4">
-        <v>4412</v>
+        <v>4421</v>
       </c>
       <c r="E233" s="4">
-        <v>43101</v>
+        <v>43153</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>60778</v>
+        <v>60871</v>
       </c>
       <c r="C234" s="4">
         <v>1342</v>
       </c>
       <c r="D234" s="4">
-        <v>32091</v>
+        <v>32108</v>
       </c>
       <c r="E234" s="4">
-        <v>94211</v>
+        <v>94321</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>31232</v>
+        <v>31329</v>
       </c>
       <c r="C235" s="4">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="D235" s="4">
-        <v>19725</v>
+        <v>19805</v>
       </c>
       <c r="E235" s="4">
-        <v>53254</v>
+        <v>53435</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>68780</v>
+        <v>68930</v>
       </c>
       <c r="C236" s="4">
-        <v>4229</v>
+        <v>4277</v>
       </c>
       <c r="D236" s="4">
-        <v>29754</v>
+        <v>29805</v>
       </c>
       <c r="E236" s="4">
-        <v>102763</v>
+        <v>103012</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>162864</v>
+        <v>163060</v>
       </c>
       <c r="C237" s="4">
-        <v>3189</v>
+        <v>3195</v>
       </c>
       <c r="D237" s="4">
-        <v>42648</v>
+        <v>42692</v>
       </c>
       <c r="E237" s="4">
-        <v>208701</v>
+        <v>208947</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>55893</v>
+        <v>56049</v>
       </c>
       <c r="C238" s="4">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="D238" s="4">
-        <v>10385</v>
+        <v>10404</v>
       </c>
       <c r="E238" s="4">
-        <v>68563</v>
+        <v>68740</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>5527</v>
+        <v>5529</v>
       </c>
       <c r="C239" s="4">
         <v>230</v>
       </c>
       <c r="D239" s="4">
-        <v>1962</v>
+        <v>1972</v>
       </c>
       <c r="E239" s="4">
-        <v>7719</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>52388</v>
+        <v>52468</v>
       </c>
       <c r="C240" s="4">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="D240" s="4">
-        <v>24485</v>
+        <v>24599</v>
       </c>
       <c r="E240" s="4">
-        <v>78843</v>
+        <v>79042</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>494379</v>
+        <v>495179</v>
       </c>
       <c r="C241" s="4">
-        <v>6418</v>
+        <v>6421</v>
       </c>
       <c r="D241" s="4">
-        <v>131030</v>
+        <v>131947</v>
       </c>
       <c r="E241" s="4">
-        <v>631827</v>
+        <v>633547</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>46362</v>
+        <v>46414</v>
       </c>
       <c r="C242" s="4">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="D242" s="4">
-        <v>9610</v>
+        <v>9619</v>
       </c>
       <c r="E242" s="4">
-        <v>58468</v>
+        <v>58532</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2224</v>
+        <v>2231</v>
       </c>
       <c r="C243" s="4">
         <v>485</v>
       </c>
       <c r="D243" s="4">
-        <v>4280</v>
+        <v>4301</v>
       </c>
       <c r="E243" s="4">
-        <v>6989</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>144956</v>
+        <v>145264</v>
       </c>
       <c r="C244" s="4">
-        <v>9751</v>
+        <v>9764</v>
       </c>
       <c r="D244" s="4">
-        <v>60786</v>
+        <v>60902</v>
       </c>
       <c r="E244" s="4">
-        <v>215493</v>
+        <v>215930</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>16632</v>
+        <v>16666</v>
       </c>
       <c r="C245" s="4">
         <v>770</v>
       </c>
       <c r="D245" s="4">
-        <v>20604</v>
+        <v>20611</v>
       </c>
       <c r="E245" s="4">
-        <v>38006</v>
+        <v>38047</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>44036</v>
+        <v>44154</v>
       </c>
       <c r="C246" s="4">
         <v>229</v>
       </c>
       <c r="D246" s="4">
-        <v>7826</v>
+        <v>7835</v>
       </c>
       <c r="E246" s="4">
-        <v>52091</v>
+        <v>52218</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>729599</v>
+        <v>731788</v>
       </c>
       <c r="C247" s="4">
-        <v>29074</v>
+        <v>29353</v>
       </c>
       <c r="D247" s="4">
-        <v>179077</v>
+        <v>179492</v>
       </c>
       <c r="E247" s="4">
-        <v>937750</v>
+        <v>940633</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>50691</v>
+        <v>50770</v>
       </c>
       <c r="C248" s="4">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D248" s="4">
-        <v>18525</v>
+        <v>18609</v>
       </c>
       <c r="E248" s="4">
-        <v>70687</v>
+        <v>70851</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C249" s="4">
         <v>72</v>
       </c>
       <c r="D249" s="4">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="E249" s="4">
-        <v>2319</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>69263</v>
+        <v>69400</v>
       </c>
       <c r="C250" s="4">
-        <v>3889</v>
+        <v>3896</v>
       </c>
       <c r="D250" s="4">
-        <v>14775</v>
+        <v>14812</v>
       </c>
       <c r="E250" s="4">
-        <v>87927</v>
+        <v>88108</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>27323</v>
+        <v>27390</v>
       </c>
       <c r="C251" s="4">
-        <v>2277</v>
+        <v>2282</v>
       </c>
       <c r="D251" s="4">
-        <v>14516</v>
+        <v>14562</v>
       </c>
       <c r="E251" s="4">
-        <v>44116</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="C252" s="4">
         <v>170</v>
       </c>
       <c r="D252" s="4">
-        <v>1705</v>
+        <v>1717</v>
       </c>
       <c r="E252" s="4">
-        <v>4685</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>10140</v>
+        <v>10150</v>
       </c>
       <c r="C253" s="4">
         <v>662</v>
       </c>
       <c r="D253" s="4">
-        <v>5119</v>
+        <v>5151</v>
       </c>
       <c r="E253" s="4">
-        <v>15921</v>
+        <v>15963</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18098</v>
+        <v>18111</v>
       </c>
       <c r="C254" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D254" s="4">
-        <v>16945</v>
+        <v>16961</v>
       </c>
       <c r="E254" s="4">
-        <v>35193</v>
+        <v>35224</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>12555</v>
+        <v>12572</v>
       </c>
       <c r="C255" s="4">
         <v>268</v>
       </c>
       <c r="D255" s="4">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E255" s="4">
-        <v>15320</v>
+        <v>15338</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>225185</v>
+        <v>227424</v>
       </c>
       <c r="C256" s="4">
-        <v>13920</v>
+        <v>13932</v>
       </c>
       <c r="D256" s="4">
-        <v>15438</v>
+        <v>15460</v>
       </c>
       <c r="E256" s="4">
-        <v>254543</v>
+        <v>256816</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>36368934</v>
+        <v>36460233</v>
       </c>
       <c r="C257" s="4">
-        <v>1631067</v>
+        <v>1635011</v>
       </c>
       <c r="D257" s="4">
-        <v>8957247</v>
+        <v>8983851</v>
       </c>
       <c r="E257" s="4">
-        <v>46957248</v>
+        <v>47079095</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
